--- a/2.学生相关模板/幼儿园自带药品登记表(打印选择比例75%).xlsx
+++ b/2.学生相关模板/幼儿园自带药品登记表(打印选择比例75%).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="34">
   <si>
     <t>XX市托幼（园）所幼儿自带药品登记表</t>
   </si>
@@ -129,28 +129,6 @@
     <t>疾病名称：急性咽喉炎</t>
   </si>
   <si>
-    <r>
-      <t>服食时间（在下方打</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>√</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
     <t>2024.xx.xx</t>
   </si>
   <si>
@@ -176,6 +154,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.需在园内服用药物的幼儿，必须持有</t>
     </r>
     <r>
@@ -183,7 +166,6 @@
         <sz val="14"/>
         <color indexed="10"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>正规医院</t>
@@ -192,7 +174,6 @@
       <rPr>
         <sz val="14"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>开具的处方，请家长认真填写登记表，字迹清晰工整，填写清楚服药当天的</t>
@@ -202,7 +183,6 @@
         <sz val="14"/>
         <color indexed="10"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日期、班别、疾病名称、姓名、药品名称、服用剂量和时间、送药者签名。</t>
@@ -211,7 +191,6 @@
       <rPr>
         <sz val="14"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -222,7 +201,6 @@
         <sz val="14"/>
         <color indexed="10"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>当日服用的剂量</t>
@@ -231,7 +209,6 @@
       <rPr>
         <sz val="14"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，并把</t>
@@ -241,7 +218,6 @@
         <sz val="14"/>
         <color indexed="10"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>每次喂服的药量分开</t>
@@ -250,7 +226,6 @@
       <rPr>
         <sz val="14"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，要与保健人员交接清楚并做好登记。
@@ -262,7 +237,6 @@
         <sz val="14"/>
         <color indexed="10"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>家长不要把药品放在幼儿书包内，让幼儿自行服用，否则后果将自行负责。</t>
@@ -271,7 +245,6 @@
       <rPr>
         <sz val="14"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -333,7 +306,6 @@
     <font>
       <sz val="14"/>
       <name val="仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -495,7 +467,6 @@
       <sz val="14"/>
       <color indexed="10"/>
       <name val="仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1087,7 +1058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,9 +1099,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,9 +1111,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1156,25 +1121,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1188,9 +1140,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,41 +1151,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1246,97 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2098,10 +1941,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2120,626 +1963,626 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" spans="1:14">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" ht="17.6" spans="1:14">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" ht="59" customHeight="1" spans="1:14">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="69" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="37" customHeight="1" spans="1:14">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="73">
+      <c r="G4" s="25">
         <v>0.375</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="26">
         <v>0.625</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" ht="17.6" spans="1:14">
-      <c r="A5" s="60"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" ht="17.6" spans="1:14">
-      <c r="A6" s="68"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" ht="17.6" spans="1:14">
-      <c r="A7" s="68"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" ht="17.6" spans="1:14">
-      <c r="A8" s="68"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" ht="17.6" spans="1:14">
-      <c r="A9" s="68"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" ht="31" spans="1:14">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="69" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="85" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" ht="26" spans="1:14">
-      <c r="A13" s="55" t="s">
+    <row r="15" ht="26" spans="1:14">
+      <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-    </row>
-    <row r="14" ht="17.6" spans="1:14">
-      <c r="A14" s="56" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" ht="17.6" spans="1:14">
+      <c r="A16" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-    </row>
-    <row r="15" ht="55" customHeight="1" spans="1:14">
-      <c r="A15" s="57" t="s">
+      <c r="L16" s="1"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+    </row>
+    <row r="17" ht="55" customHeight="1" spans="1:14">
+      <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="69" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="79" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="60" t="s">
+      <c r="K17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="60" t="s">
+      <c r="N17" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="72" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G18" s="25">
         <v>0.375</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H18" s="26">
         <v>0.625</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-    </row>
-    <row r="17" ht="17.6" spans="1:14">
-      <c r="A17" s="60"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-    </row>
-    <row r="18" ht="17.6" spans="1:14">
-      <c r="A18" s="68"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" ht="17.6" spans="1:14">
-      <c r="A19" s="68"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" ht="17.6" spans="1:14">
-      <c r="A20" s="68"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" ht="17.6" spans="1:14">
-      <c r="A21" s="68"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-    </row>
-    <row r="22" ht="31" spans="1:14">
-      <c r="A22" s="67" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" ht="17.6" spans="1:14">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" ht="17.6" spans="1:14">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" ht="31" spans="1:14">
+      <c r="A24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="69" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="85" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="67" t="s">
+      <c r="M24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="67" t="s">
+      <c r="N24" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" ht="26" spans="1:14">
-      <c r="A25" s="55" t="s">
+    <row r="29" ht="26" spans="1:14">
+      <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-    </row>
-    <row r="26" ht="17.6" spans="1:14">
-      <c r="A26" s="56" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" ht="17.6" spans="1:14">
+      <c r="A30" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56" t="s">
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="77"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-    </row>
-    <row r="27" ht="55" customHeight="1" spans="1:14">
-      <c r="A27" s="57" t="s">
+      <c r="L30" s="1"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+    </row>
+    <row r="31" ht="55" customHeight="1" spans="1:14">
+      <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="69" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="79" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="60" t="s">
+      <c r="K31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="L31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="60" t="s">
+      <c r="M31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="60" t="s">
+      <c r="N31" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" ht="16" customHeight="1" spans="1:14">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="72" t="s">
+    <row r="32" ht="16" customHeight="1" spans="1:14">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F32" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="73">
+      <c r="G32" s="25">
         <v>0.375</v>
       </c>
-      <c r="H28" s="74">
+      <c r="H32" s="26">
         <v>0.625</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I32" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="80"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-    </row>
-    <row r="29" ht="17.6" spans="1:14">
-      <c r="A29" s="60"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-    </row>
-    <row r="30" ht="17.6" spans="1:14">
-      <c r="A30" s="68"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-    </row>
-    <row r="31" ht="17.6" spans="1:14">
-      <c r="A31" s="68"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-    </row>
-    <row r="32" ht="17.6" spans="1:14">
-      <c r="A32" s="68"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" ht="17.6" spans="1:14">
-      <c r="A33" s="68"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-    </row>
-    <row r="34" ht="31" spans="1:14">
-      <c r="A34" s="67" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" ht="17.6" spans="1:14">
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+    </row>
+    <row r="35" ht="17.6" spans="1:14">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+    </row>
+    <row r="36" ht="17.6" spans="1:14">
+      <c r="A36" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" ht="17.6" spans="1:14">
+      <c r="A37" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" ht="31" spans="1:14">
+      <c r="A38" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="69" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="85" t="s">
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="67" t="s">
+      <c r="M38" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="67" t="s">
+      <c r="N38" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2755,62 +2598,62 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:K10"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A25:N25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:I31"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:K38"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A37"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J37"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K5:K9"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K21"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K33:K37"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L9"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L21"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L33:L37"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M31:M32"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N31:N32"/>
     <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B31:C32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2858,7 +2701,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="50"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
@@ -2875,13 +2718,13 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="50.25" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
@@ -2897,13 +2740,13 @@
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -2924,184 +2767,181 @@
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="25">
         <v>0.375</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="26">
         <v>0.625</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="40"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="20" customHeight="1" spans="1:14">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="20" customHeight="1" spans="1:14">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A7" s="19"/>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="E7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:14">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="13" customHeight="1" spans="1:14">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="22"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="10" customHeight="1" spans="9:13">
       <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="1:21">
@@ -3121,42 +2961,41 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="20" customHeight="1" spans="1:21">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23" t="s">
+      <c r="J14" s="21"/>
+      <c r="K14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="45" customHeight="1" spans="1:23">
       <c r="A15" s="6" t="s">
@@ -3172,13 +3011,13 @@
       <c r="E15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -3193,228 +3032,221 @@
       <c r="N15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="W15" s="36"/>
+      <c r="P15" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="13" customHeight="1" spans="1:23">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="25">
         <v>0.375</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="26">
         <v>0.625</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="40"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="W16" s="36"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="W16" s="28"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="20" customHeight="1" spans="1:21">
-      <c r="A17" s="24"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="20" customHeight="1" spans="1:21">
-      <c r="A18" s="25"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="20" customHeight="1" spans="1:21">
-      <c r="A19" s="25"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="20" customHeight="1" spans="1:21">
-      <c r="A20" s="25"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="20" customHeight="1" spans="1:21">
-      <c r="A21" s="25"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:21">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="47" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:21">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="10" customHeight="1" spans="9:21">
       <c r="I24" s="3"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="32" customHeight="1" spans="1:21">
       <c r="A25" s="4" t="s">
@@ -3433,42 +3265,41 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="20" customHeight="1" spans="1:21">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23" t="s">
+      <c r="J26" s="21"/>
+      <c r="K26" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="50.25" customHeight="1" spans="1:21">
       <c r="A27" s="6" t="s">
@@ -3484,13 +3315,13 @@
       <c r="E27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38" t="s">
+      <c r="F27" s="23"/>
+      <c r="G27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -3505,160 +3336,147 @@
       <c r="N27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="13" customHeight="1" spans="1:14">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="25">
         <v>0.375</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="26">
         <v>0.625</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="39"/>
+      <c r="J28" s="31"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="40"/>
+      <c r="L28" s="17"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A29" s="24"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A30" s="25"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="21" customHeight="1" spans="1:14">
-      <c r="A31" s="25"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="21" customHeight="1" spans="1:14">
-      <c r="A32" s="25"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:14">
-      <c r="A33" s="25"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:14">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="47" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="17" t="s">
+      <c r="N34" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:14">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
+    <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="9:9">
+      <c r="I35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="70">
